--- a/Inf2_lab7.xlsx
+++ b/Inf2_lab7.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRep\SalovInf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D1B86-6F1B-4A23-8DED-7EC03419EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9384" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Квадратное уравнение" sheetId="1" r:id="rId1"/>
+    <sheet name="Параметры параллелепипеда" sheetId="2" r:id="rId2"/>
+    <sheet name="Подбор параметров" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="a">'Квадратное уравнение'!$B$1</definedName>
+    <definedName name="a">'Квадратное уравнение'!$A$2</definedName>
     <definedName name="b">'Квадратное уравнение'!$B$2</definedName>
-    <definedName name="c_">'Квадратное уравнение'!$B$3</definedName>
+    <definedName name="c_">'Квадратное уравнение'!$C$2</definedName>
+    <definedName name="d" localSheetId="2">'Подбор параметров'!$B$9</definedName>
+    <definedName name="d">'Параметры параллелепипеда'!$B$9</definedName>
+    <definedName name="x" localSheetId="2">'Подбор параметров'!$B$1</definedName>
+    <definedName name="x">'Параметры параллелепипеда'!$B$1</definedName>
+    <definedName name="y" localSheetId="2">'Подбор параметров'!$B$2</definedName>
+    <definedName name="y">'Параметры параллелепипеда'!$B$2</definedName>
+    <definedName name="z" localSheetId="2">'Подбор параметров'!$B$3</definedName>
+    <definedName name="z">'Параметры параллелепипеда'!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -39,18 +48,52 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Vш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -94,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,14 +181,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,9 +221,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -206,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -355,31 +402,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>b^2-4*a*c_</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(IFERROR((-b+SQRT(B5))/2*a,1)+IFERROR((-b-SQRT(B5))/2*a,1) = 2,"нет корней","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>IFERROR((-b+SQRT(B5))/2*a,"")</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IFERROR(IF((-b-SQRT(B5))/2*a=(-b+SQRT(B5))/2*a,"",(-b-SQRT(B5))/2*a),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="НОЛЬ НЕЛЬЗЯ" promptTitle="НОЛЬ НЕЛЬЗЯ" prompt="0 тоже" sqref="A2">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>y*x*z</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>2*(x*y+y*z+x*z)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>SQRT(x^2+y^2+z^2)</f>
+        <v>10.246950765959598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f>d^3/6</f>
+        <v>179.32163840429294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <f>y*x*z</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>2*(x*y+y*z+x*z)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>SQRT(x^2+y^2+z^2)</f>
+        <v>10.246950765959598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f>d^3/6</f>
+        <v>179.32163840429294</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>